--- a/Proactive Attrition Management/logisticregSAS.xlsx
+++ b/Proactive Attrition Management/logisticregSAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Business Analytics\Case studies\Proactive-Attrition-Management-Logistic Regression\Logistic Reg in SAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SASUniversityEdition\myfolders\file_data\Assignments\Proactive Attrition Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROC CONTENTS" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="188">
   <si>
     <t>Variables in Creation Order</t>
   </si>
@@ -594,6 +594,9 @@
   <si>
     <t>FACTOR OF IMPORTANCE</t>
   </si>
+  <si>
+    <t>Abs(standardized Estimate</t>
+  </si>
 </sst>
 </file>
 
@@ -1069,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1495,6 +1498,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1543,7 +1559,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1786,20 +1802,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1810,8 +1817,17 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1819,14 +1835,14 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1845,6 +1861,18 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2177,11 +2205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2031901344"/>
-        <c:axId val="2031892640"/>
+        <c:axId val="1142577552"/>
+        <c:axId val="1142582448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2031901344"/>
+        <c:axId val="1142577552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031892640"/>
+        <c:crossAx val="1142582448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2031892640"/>
+        <c:axId val="1142582448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031901344"/>
+        <c:crossAx val="1142577552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,12 +2652,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2031904608"/>
-        <c:axId val="2031893184"/>
+        <c:axId val="1142585712"/>
+        <c:axId val="1142586800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2031904608"/>
+        <c:axId val="1142585712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031893184"/>
+        <c:crossAx val="1142586800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2031893184"/>
+        <c:axId val="1142586800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,7 +2752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031904608"/>
+        <c:crossAx val="1142585712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,11 +3035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2097580704"/>
-        <c:axId val="2097576896"/>
+        <c:axId val="1142588432"/>
+        <c:axId val="1142588976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097580704"/>
+        <c:axId val="1142588432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +3081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097576896"/>
+        <c:crossAx val="1142588976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,7 +3089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097576896"/>
+        <c:axId val="1142588976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097580704"/>
+        <c:crossAx val="1142588432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5187,7 +5215,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -11592,79 +11620,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
       <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
     </row>
     <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -11769,10 +11797,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="94">
         <v>1</v>
       </c>
       <c r="C4" s="39">
@@ -11873,8 +11901,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="42" t="s">
         <v>117</v>
       </c>
@@ -11971,13 +11999,13 @@
       <c r="AH5" s="53"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="39">
         <v>0.72119</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="94">
         <v>1</v>
       </c>
       <c r="D6" s="39">
@@ -12075,11 +12103,11 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="42" t="s">
         <v>117</v>
       </c>
@@ -12173,7 +12201,7 @@
       <c r="AH7" s="53"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="39">
@@ -12182,7 +12210,7 @@
       <c r="C8" s="39">
         <v>0.57859000000000005</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="94">
         <v>1</v>
       </c>
       <c r="E8" s="39">
@@ -12277,14 +12305,14 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="42" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="42" t="s">
         <v>117</v>
       </c>
@@ -12375,7 +12403,7 @@
       <c r="AH9" s="53"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="39">
@@ -12387,7 +12415,7 @@
       <c r="D10" s="39">
         <v>0.32767000000000002</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="94">
         <v>1</v>
       </c>
       <c r="F10" s="39">
@@ -12479,7 +12507,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="42" t="s">
         <v>117</v>
       </c>
@@ -12489,7 +12517,7 @@
       <c r="D11" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="42" t="s">
         <v>117</v>
       </c>
@@ -12577,7 +12605,7 @@
       <c r="AH11" s="53"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="99" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="39">
@@ -12592,7 +12620,7 @@
       <c r="E12" s="39">
         <v>0.31422</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="94">
         <v>1</v>
       </c>
       <c r="G12" s="39">
@@ -12681,7 +12709,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="42" t="s">
         <v>117</v>
       </c>
@@ -12694,7 +12722,7 @@
       <c r="E13" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="97"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="42" t="s">
         <v>117</v>
       </c>
@@ -12779,7 +12807,7 @@
       <c r="AH13" s="53"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="99" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="39">
@@ -12797,7 +12825,7 @@
       <c r="F14" s="39">
         <v>0.11345</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="94">
         <v>1</v>
       </c>
       <c r="H14" s="39">
@@ -12883,7 +12911,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="42" t="s">
         <v>117</v>
       </c>
@@ -12899,7 +12927,7 @@
       <c r="F15" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="97"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="42" t="s">
         <v>117</v>
       </c>
@@ -12981,7 +13009,7 @@
       <c r="AH15" s="53"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="39">
@@ -13002,7 +13030,7 @@
       <c r="G16" s="39">
         <v>-3.354E-2</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="94">
         <v>1</v>
       </c>
       <c r="I16" s="39">
@@ -13085,7 +13113,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="42" t="s">
         <v>117</v>
       </c>
@@ -13104,7 +13132,7 @@
       <c r="G17" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="42" t="s">
         <v>117</v>
       </c>
@@ -13183,7 +13211,7 @@
       <c r="AH17" s="53"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="99" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="39">
@@ -13207,7 +13235,7 @@
       <c r="H18" s="39">
         <v>0.60848000000000002</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="94">
         <v>1</v>
       </c>
       <c r="J18" s="39">
@@ -13287,7 +13315,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="95"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="42" t="s">
         <v>117</v>
       </c>
@@ -13309,7 +13337,7 @@
       <c r="H19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="97"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="42" t="s">
         <v>117</v>
       </c>
@@ -13385,7 +13413,7 @@
       <c r="AH19" s="53"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="39">
@@ -13412,7 +13440,7 @@
       <c r="I20" s="39">
         <v>-6.2440000000000002E-2</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="94">
         <v>1</v>
       </c>
       <c r="K20" s="39">
@@ -13489,7 +13517,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="95"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="42" t="s">
         <v>117</v>
       </c>
@@ -13514,7 +13542,7 @@
       <c r="I21" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="97"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="42" t="s">
         <v>117</v>
       </c>
@@ -13587,7 +13615,7 @@
       <c r="AH21" s="53"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="99" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="39">
@@ -13617,7 +13645,7 @@
       <c r="J22" s="39">
         <v>0.24514</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="94">
         <v>1</v>
       </c>
       <c r="L22" s="39">
@@ -13691,7 +13719,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="95"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="42" t="s">
         <v>117</v>
       </c>
@@ -13719,7 +13747,7 @@
       <c r="J23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="97"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="42" t="s">
         <v>117</v>
       </c>
@@ -13789,7 +13817,7 @@
       <c r="AH23" s="53"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="39">
@@ -13822,7 +13850,7 @@
       <c r="K24" s="39">
         <v>0.35417999999999999</v>
       </c>
-      <c r="L24" s="96">
+      <c r="L24" s="94">
         <v>1</v>
       </c>
       <c r="M24" s="39">
@@ -13893,7 +13921,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="42" t="s">
         <v>117</v>
       </c>
@@ -13924,7 +13952,7 @@
       <c r="K25" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="97"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="42" t="s">
         <v>117</v>
       </c>
@@ -13991,7 +14019,7 @@
       <c r="AH25" s="54"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="99" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="39">
@@ -14027,7 +14055,7 @@
       <c r="L26" s="39">
         <v>0.47615000000000002</v>
       </c>
-      <c r="M26" s="96">
+      <c r="M26" s="94">
         <v>1</v>
       </c>
       <c r="N26" s="39">
@@ -14095,7 +14123,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="42" t="s">
         <v>117</v>
       </c>
@@ -14129,7 +14157,7 @@
       <c r="L27" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="M27" s="97"/>
+      <c r="M27" s="95"/>
       <c r="N27" s="42" t="s">
         <v>117</v>
       </c>
@@ -14193,7 +14221,7 @@
       <c r="AH27" s="54"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="99" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="39">
@@ -14232,7 +14260,7 @@
       <c r="M28" s="39">
         <v>0.29088999999999998</v>
       </c>
-      <c r="N28" s="96">
+      <c r="N28" s="94">
         <v>1</v>
       </c>
       <c r="O28" s="39">
@@ -14297,7 +14325,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="42" t="s">
         <v>117</v>
       </c>
@@ -14334,7 +14362,7 @@
       <c r="M29" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="97"/>
+      <c r="N29" s="95"/>
       <c r="O29" s="42" t="s">
         <v>117</v>
       </c>
@@ -14395,7 +14423,7 @@
       <c r="AH29" s="54"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="99" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="39">
@@ -14437,7 +14465,7 @@
       <c r="N30" s="39">
         <v>0.31229000000000001</v>
       </c>
-      <c r="O30" s="96">
+      <c r="O30" s="94">
         <v>1</v>
       </c>
       <c r="P30" s="39">
@@ -14499,7 +14527,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="95"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="42" t="s">
         <v>117</v>
       </c>
@@ -14539,7 +14567,7 @@
       <c r="N31" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="O31" s="97"/>
+      <c r="O31" s="95"/>
       <c r="P31" s="42" t="s">
         <v>117</v>
       </c>
@@ -14597,7 +14625,7 @@
       <c r="AH31" s="54"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="99" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="39">
@@ -14642,7 +14670,7 @@
       <c r="O32" s="39">
         <v>0.70264000000000004</v>
       </c>
-      <c r="P32" s="96">
+      <c r="P32" s="94">
         <v>1</v>
       </c>
       <c r="Q32" s="39">
@@ -14701,7 +14729,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="95"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="42" t="s">
         <v>117</v>
       </c>
@@ -14744,7 +14772,7 @@
       <c r="O33" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="97"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="42" t="s">
         <v>117</v>
       </c>
@@ -14799,7 +14827,7 @@
       <c r="AH33" s="54"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="39">
@@ -14847,7 +14875,7 @@
       <c r="P34" s="39">
         <v>0.75712000000000002</v>
       </c>
-      <c r="Q34" s="96">
+      <c r="Q34" s="94">
         <v>1</v>
       </c>
       <c r="R34" s="39">
@@ -14903,7 +14931,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="95"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="42" t="s">
         <v>117</v>
       </c>
@@ -14949,7 +14977,7 @@
       <c r="P35" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="Q35" s="97"/>
+      <c r="Q35" s="95"/>
       <c r="R35" s="42" t="s">
         <v>117</v>
       </c>
@@ -15001,7 +15029,7 @@
       <c r="AH35" s="54"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="99" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="39">
@@ -15052,7 +15080,7 @@
       <c r="Q36" s="39">
         <v>0.61526999999999998</v>
       </c>
-      <c r="R36" s="96">
+      <c r="R36" s="94">
         <v>1</v>
       </c>
       <c r="S36" s="39">
@@ -15105,7 +15133,7 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="95"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="42" t="s">
         <v>117</v>
       </c>
@@ -15154,7 +15182,7 @@
       <c r="Q37" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="R37" s="97"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="42" t="s">
         <v>117</v>
       </c>
@@ -15203,7 +15231,7 @@
       <c r="AH37" s="54"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="99" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="39">
@@ -15257,7 +15285,7 @@
       <c r="R38" s="39">
         <v>0.72063999999999995</v>
       </c>
-      <c r="S38" s="96">
+      <c r="S38" s="94">
         <v>1</v>
       </c>
       <c r="T38" s="39">
@@ -15307,7 +15335,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="95"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="42" t="s">
         <v>117</v>
       </c>
@@ -15359,7 +15387,7 @@
       <c r="R39" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="S39" s="97"/>
+      <c r="S39" s="95"/>
       <c r="T39" s="42" t="s">
         <v>117</v>
       </c>
@@ -15405,7 +15433,7 @@
       <c r="AH39" s="54"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="99" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="39">
@@ -15462,7 +15490,7 @@
       <c r="S40" s="39">
         <v>0.66503000000000001</v>
       </c>
-      <c r="T40" s="96">
+      <c r="T40" s="94">
         <v>1</v>
       </c>
       <c r="U40" s="39">
@@ -15509,7 +15537,7 @@
       </c>
     </row>
     <row r="41" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="95"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="42" t="s">
         <v>117</v>
       </c>
@@ -15564,7 +15592,7 @@
       <c r="S41" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="T41" s="97"/>
+      <c r="T41" s="95"/>
       <c r="U41" s="42" t="s">
         <v>117</v>
       </c>
@@ -15607,7 +15635,7 @@
       <c r="AH41" s="54"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="39">
@@ -15667,7 +15695,7 @@
       <c r="T42" s="39">
         <v>4.4040000000000003E-2</v>
       </c>
-      <c r="U42" s="96">
+      <c r="U42" s="94">
         <v>1</v>
       </c>
       <c r="V42" s="39">
@@ -15711,7 +15739,7 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="95"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="42" t="s">
         <v>117</v>
       </c>
@@ -15769,7 +15797,7 @@
       <c r="T43" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="U43" s="97"/>
+      <c r="U43" s="95"/>
       <c r="V43" s="42" t="s">
         <v>117</v>
       </c>
@@ -15809,7 +15837,7 @@
       <c r="AH43" s="54"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="39">
@@ -15872,7 +15900,7 @@
       <c r="U44" s="39">
         <v>4.6489999999999997E-2</v>
       </c>
-      <c r="V44" s="96">
+      <c r="V44" s="94">
         <v>1</v>
       </c>
       <c r="W44" s="39">
@@ -15913,7 +15941,7 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="95"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="42" t="s">
         <v>117</v>
       </c>
@@ -15974,7 +16002,7 @@
       <c r="U45" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="V45" s="97"/>
+      <c r="V45" s="95"/>
       <c r="W45" s="42" t="s">
         <v>117</v>
       </c>
@@ -16011,7 +16039,7 @@
       <c r="AH45" s="53"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="99" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="39">
@@ -16077,7 +16105,7 @@
       <c r="V46" s="39">
         <v>-1.9859999999999999E-2</v>
       </c>
-      <c r="W46" s="96">
+      <c r="W46" s="94">
         <v>1</v>
       </c>
       <c r="X46" s="39">
@@ -16115,7 +16143,7 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="95"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="42">
         <v>0.39600000000000002</v>
       </c>
@@ -16179,7 +16207,7 @@
       <c r="V47" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="W47" s="97"/>
+      <c r="W47" s="95"/>
       <c r="X47" s="42" t="s">
         <v>117</v>
       </c>
@@ -16213,7 +16241,7 @@
       <c r="AH47" s="53"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="99" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="39">
@@ -16282,7 +16310,7 @@
       <c r="W48" s="39">
         <v>2.503E-2</v>
       </c>
-      <c r="X48" s="96">
+      <c r="X48" s="94">
         <v>1</v>
       </c>
       <c r="Y48" s="39">
@@ -16317,7 +16345,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="95"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="42" t="s">
         <v>117</v>
       </c>
@@ -16384,7 +16412,7 @@
       <c r="W49" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="X49" s="97"/>
+      <c r="X49" s="95"/>
       <c r="Y49" s="42" t="s">
         <v>117</v>
       </c>
@@ -16415,7 +16443,7 @@
       <c r="AH49" s="53"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="99" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="39">
@@ -16487,7 +16515,7 @@
       <c r="X50" s="39">
         <v>0.79644999999999999</v>
       </c>
-      <c r="Y50" s="96">
+      <c r="Y50" s="94">
         <v>1</v>
       </c>
       <c r="Z50" s="39">
@@ -16519,7 +16547,7 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="95"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="42" t="s">
         <v>117</v>
       </c>
@@ -16589,7 +16617,7 @@
       <c r="X51" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="Y51" s="97"/>
+      <c r="Y51" s="95"/>
       <c r="Z51" s="42" t="s">
         <v>117</v>
       </c>
@@ -16617,7 +16645,7 @@
       <c r="AH51" s="53"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="99" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="39">
@@ -16692,7 +16720,7 @@
       <c r="Y52" s="39">
         <v>2.034E-2</v>
       </c>
-      <c r="Z52" s="96">
+      <c r="Z52" s="94">
         <v>1</v>
       </c>
       <c r="AA52" s="39">
@@ -16721,7 +16749,7 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="95"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="42" t="s">
         <v>117</v>
       </c>
@@ -16794,7 +16822,7 @@
       <c r="Y53" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="Z53" s="97"/>
+      <c r="Z53" s="95"/>
       <c r="AA53" s="42" t="s">
         <v>117</v>
       </c>
@@ -16819,7 +16847,7 @@
       <c r="AH53" s="53"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="99" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="39">
@@ -16897,7 +16925,7 @@
       <c r="Z54" s="39">
         <v>0.89215999999999995</v>
       </c>
-      <c r="AA54" s="96">
+      <c r="AA54" s="94">
         <v>1</v>
       </c>
       <c r="AB54" s="39">
@@ -16923,7 +16951,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="95"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="42" t="s">
         <v>117</v>
       </c>
@@ -16999,7 +17027,7 @@
       <c r="Z55" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AA55" s="97"/>
+      <c r="AA55" s="95"/>
       <c r="AB55" s="42" t="s">
         <v>117</v>
       </c>
@@ -17021,7 +17049,7 @@
       <c r="AH55" s="53"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="99" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="39">
@@ -17102,7 +17130,7 @@
       <c r="AA56" s="39">
         <v>-0.40758</v>
       </c>
-      <c r="AB56" s="96">
+      <c r="AB56" s="94">
         <v>1</v>
       </c>
       <c r="AC56" s="39">
@@ -17125,7 +17153,7 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="95"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="42" t="s">
         <v>117</v>
       </c>
@@ -17204,7 +17232,7 @@
       <c r="AA57" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AB57" s="97"/>
+      <c r="AB57" s="95"/>
       <c r="AC57" s="42" t="s">
         <v>117</v>
       </c>
@@ -17223,7 +17251,7 @@
       <c r="AH57" s="53"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="99" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="39">
@@ -17307,7 +17335,7 @@
       <c r="AB58" s="39">
         <v>0.12434000000000001</v>
       </c>
-      <c r="AC58" s="96">
+      <c r="AC58" s="94">
         <v>1</v>
       </c>
       <c r="AD58" s="39">
@@ -17327,7 +17355,7 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="95"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="42" t="s">
         <v>117</v>
       </c>
@@ -17409,7 +17437,7 @@
       <c r="AB59" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AC59" s="97"/>
+      <c r="AC59" s="95"/>
       <c r="AD59" s="42" t="s">
         <v>117</v>
       </c>
@@ -17425,7 +17453,7 @@
       <c r="AH59" s="53"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="99" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="39">
@@ -17512,7 +17540,7 @@
       <c r="AC60" s="39">
         <v>0.67552999999999996</v>
       </c>
-      <c r="AD60" s="96">
+      <c r="AD60" s="94">
         <v>1</v>
       </c>
       <c r="AE60" s="39">
@@ -17529,7 +17557,7 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="95"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="42" t="s">
         <v>117</v>
       </c>
@@ -17614,7 +17642,7 @@
       <c r="AC61" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AD61" s="97"/>
+      <c r="AD61" s="95"/>
       <c r="AE61" s="42" t="s">
         <v>117</v>
       </c>
@@ -17627,7 +17655,7 @@
       <c r="AH61" s="53"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="99" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="39">
@@ -17717,7 +17745,7 @@
       <c r="AD62" s="39">
         <v>0.37919999999999998</v>
       </c>
-      <c r="AE62" s="96">
+      <c r="AE62" s="94">
         <v>1</v>
       </c>
       <c r="AF62" s="39">
@@ -17731,7 +17759,7 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="95"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="42" t="s">
         <v>117</v>
       </c>
@@ -17819,7 +17847,7 @@
       <c r="AD63" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AE63" s="97"/>
+      <c r="AE63" s="95"/>
       <c r="AF63" s="42">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -17829,7 +17857,7 @@
       <c r="AH63" s="53"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="99" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="39">
@@ -17922,7 +17950,7 @@
       <c r="AE64" s="39">
         <v>-1.2710000000000001E-2</v>
       </c>
-      <c r="AF64" s="96">
+      <c r="AF64" s="94">
         <v>1</v>
       </c>
       <c r="AG64" s="39">
@@ -17933,7 +17961,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="95"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="42">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -18024,14 +18052,14 @@
       <c r="AE65" s="42">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="AF65" s="97"/>
+      <c r="AF65" s="95"/>
       <c r="AG65" s="52">
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="AH65" s="54"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="99" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="39">
@@ -18133,7 +18161,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="98"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="41" t="s">
         <v>117</v>
       </c>
@@ -18278,6 +18306,59 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="65">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="AE62:AE63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="AF64:AF65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="AD60:AD61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="Y50:Y51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="AB56:AB57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AC58:AC59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:AG2"/>
@@ -18290,59 +18371,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="X48:X49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="AD60:AD61"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="AB56:AB57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AC58:AC59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="AE62:AE63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="AF64:AF65"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:AG66">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -19547,45 +19575,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="114"/>
+      <c r="J1" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="106" t="s">
@@ -19606,29 +19635,32 @@
       <c r="G2" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>62</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>0.24</v>
       </c>
-      <c r="O2" s="99" t="s">
+      <c r="P2" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-    </row>
-    <row r="3" spans="1:20" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+    </row>
+    <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="105"/>
       <c r="B3" s="106"/>
       <c r="C3" s="106"/>
       <c r="D3" s="19" t="s">
@@ -19639,30 +19671,31 @@
       </c>
       <c r="F3" s="106"/>
       <c r="G3" s="106"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>38</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>0.24</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>139</v>
       </c>
@@ -19682,29 +19715,30 @@
         <v>117</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="115"/>
+      <c r="J4" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>0.12</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>31.299399999999999</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>8</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
@@ -19726,24 +19760,28 @@
       <c r="G5" s="8">
         <v>0.13320000000000001</v>
       </c>
-      <c r="H5" s="12">
-        <f>G5/$C$34</f>
-        <v>-7.2990700809363859E-2</v>
-      </c>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="115">
+        <f>ABS(G5)</f>
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="I5" s="12">
+        <f>ABS(H5)/$H$34</f>
+        <v>9.7639642281190431E-2</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>400000000</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>11</v>
       </c>
@@ -19765,12 +19803,16 @@
       <c r="G6" s="9">
         <v>-0.1192</v>
       </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H33" si="0">G6/$C$34</f>
-        <v>6.5319005529100388E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="115">
+        <f t="shared" ref="H6:H41" si="0">ABS(G6)</f>
+        <v>0.1192</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" ref="I6:I33" si="1">ABS(H6)/$H$34</f>
+        <v>8.7377217416801031E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>12</v>
       </c>
@@ -19792,12 +19834,16 @@
       <c r="G7" s="9">
         <v>-0.10390000000000001</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="115">
         <f t="shared" si="0"/>
-        <v>5.6934938544241032E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
+        <v>7.6161853100718352E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>14</v>
       </c>
@@ -19819,12 +19865,16 @@
       <c r="G8" s="8">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="115">
         <f t="shared" si="0"/>
-        <v>-1.3918647151335149E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8618970825392166E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
@@ -19846,12 +19896,16 @@
       <c r="G9" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="115">
         <f t="shared" si="0"/>
-        <v>-1.3151477623308804E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7592728338953229E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>16</v>
       </c>
@@ -19873,26 +19927,30 @@
       <c r="G10" s="9">
         <v>-6.6400000000000001E-2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="115">
         <f t="shared" si="0"/>
-        <v>3.6385754757821021E-2</v>
-      </c>
-      <c r="I10" s="99" t="s">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8673215071103934E-2</v>
+      </c>
+      <c r="J10" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="O10" s="99" t="s">
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="P10" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
@@ -19914,36 +19972,40 @@
       <c r="G11" s="8">
         <v>3.56E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="115">
         <f t="shared" si="0"/>
-        <v>-1.9508025141241392E-2</v>
-      </c>
-      <c r="I11" s="107" t="s">
+        <v>3.56E-2</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
+        <v>2.6095880369447291E-2</v>
+      </c>
+      <c r="J11" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="106" t="s">
+      <c r="K11" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="99" t="s">
+      <c r="L11" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="99"/>
-      <c r="O11" s="106" t="s">
+      <c r="M11" s="96"/>
+      <c r="P11" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="106" t="s">
+      <c r="Q11" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="R11" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99" t="s">
+      <c r="S11" s="96"/>
+      <c r="T11" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="T11" s="99"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="96"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
@@ -19965,32 +20027,36 @@
       <c r="G12" s="8">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="115">
         <f t="shared" si="0"/>
-        <v>-1.5946166618261925E-2</v>
-      </c>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="99" t="s">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>2.1331183110980791E-2</v>
+      </c>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="O12" s="106"/>
+      <c r="M12" s="96"/>
       <c r="P12" s="106"/>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="106"/>
+      <c r="R12" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="S12" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="T12" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
@@ -20012,42 +20078,46 @@
       <c r="G13" s="8">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="115">
         <f t="shared" si="0"/>
-        <v>-1.9069642553797762E-2</v>
-      </c>
-      <c r="I13" s="38" t="s">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5509456091482179E-2</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>1.486</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>1.371</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>1.6120000000000001</v>
       </c>
-      <c r="O13" s="10">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
         <v>4000</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>1303</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>1247</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>2697</v>
       </c>
-      <c r="T13" s="8">
+      <c r="U13" s="8">
         <v>2753</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>22</v>
       </c>
@@ -20069,42 +20139,46 @@
       <c r="G14" s="9">
         <v>-2.5499999999999998E-2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="115">
         <f t="shared" si="0"/>
-        <v>1.3973444974765601E-2</v>
-      </c>
-      <c r="I14" s="38" t="s">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8692273860137804E-2</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>0.86299999999999999</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>0.88300000000000001</v>
       </c>
-      <c r="O14" s="10">
+      <c r="P14" s="10">
         <v>2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <v>4001</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>1478</v>
       </c>
-      <c r="R14" s="8">
+      <c r="S14" s="8">
         <v>1589.41</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>2523</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
         <v>2411.59</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
@@ -20126,42 +20200,46 @@
       <c r="G15" s="9">
         <v>-2.7400000000000001E-2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="115">
         <f t="shared" si="0"/>
-        <v>1.5014603619944217E-2</v>
-      </c>
-      <c r="I15" s="38" t="s">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0085031520304938E-2</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>0.99099999999999999</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>0.99</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>0.99299999999999999</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10">
         <v>3</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>4000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>1680</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>1744.43</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>2320</v>
       </c>
-      <c r="T15" s="8">
+      <c r="U15" s="8">
         <v>2255.5700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>26</v>
       </c>
@@ -20183,42 +20261,46 @@
       <c r="G16" s="9">
         <v>-5.5199999999999999E-2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="115">
         <f t="shared" si="0"/>
-        <v>3.0248398533610246E-2</v>
-      </c>
-      <c r="I16" s="38" t="s">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0463275179592424E-2</v>
+      </c>
+      <c r="J16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>1.0009999999999999</v>
       </c>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
       <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
         <v>1.0009999999999999</v>
       </c>
-      <c r="O16" s="10">
+      <c r="P16" s="10">
         <v>4</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>4000</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>1857</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>1859.35</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>2143</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>2140.65</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>28</v>
       </c>
@@ -20240,42 +20322,46 @@
       <c r="G17" s="8">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="115">
         <f t="shared" si="0"/>
-        <v>-2.1042364197294081E-2</v>
-      </c>
-      <c r="I17" s="38" t="s">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8148365342325163E-2</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>1.0129999999999999</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>1.0069999999999999</v>
       </c>
-      <c r="L17" s="8">
+      <c r="M17" s="8">
         <v>1.0189999999999999</v>
       </c>
-      <c r="O17" s="10">
+      <c r="P17" s="10">
         <v>5</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>4000</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>1933</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>1958.66</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>2067</v>
       </c>
-      <c r="T17" s="8">
+      <c r="U17" s="8">
         <v>2041.34</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>32</v>
       </c>
@@ -20297,42 +20383,46 @@
       <c r="G18" s="9">
         <v>-4.4499999999999998E-2</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="115">
         <f t="shared" si="0"/>
-        <v>2.4385031426551736E-2</v>
-      </c>
-      <c r="I18" s="38" t="s">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2619850461809111E-2</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>16</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.999</v>
       </c>
       <c r="K18" s="8">
         <v>0.999</v>
       </c>
       <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="10">
         <v>6</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <v>4000</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>2058</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>2054.94</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>1942</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>1945.06</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>33</v>
       </c>
@@ -20354,42 +20444,46 @@
       <c r="G19" s="8">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="115">
         <f t="shared" si="0"/>
-        <v>-2.1206757667585445E-2</v>
-      </c>
-      <c r="I19" s="38" t="s">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8368274446562081E-2</v>
+      </c>
+      <c r="J19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>1.002</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>1.0009999999999999</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>1.0029999999999999</v>
       </c>
-      <c r="O19" s="10">
+      <c r="P19" s="10">
         <v>7</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <v>4000</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <v>2230</v>
       </c>
-      <c r="R19" s="8">
+      <c r="S19" s="8">
         <v>2155.4299999999998</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>1770</v>
       </c>
-      <c r="T19" s="8">
+      <c r="U19" s="8">
         <v>1844.57</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>38</v>
       </c>
@@ -20411,42 +20505,46 @@
       <c r="G20" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="115">
         <f t="shared" si="0"/>
-        <v>-2.6302955246617608E-2</v>
-      </c>
-      <c r="I20" s="38" t="s">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>3.5185456677906457E-2</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>1.0069999999999999</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>1.012</v>
       </c>
-      <c r="O20" s="10">
+      <c r="P20" s="10">
         <v>8</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <v>4000</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>2319</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>2267.19</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>1681</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
         <v>1732.81</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>40</v>
       </c>
@@ -20468,42 +20566,46 @@
       <c r="G21" s="8">
         <v>0.14680000000000001</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="115">
         <f t="shared" si="0"/>
-        <v>-8.0443204795905512E-2</v>
-      </c>
-      <c r="I21" s="38" t="s">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.10760885500659725</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>1.044</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>1.0169999999999999</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>1.0720000000000001</v>
       </c>
-      <c r="O21" s="10">
+      <c r="P21" s="10">
         <v>9</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>4000</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>2449</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>2415.15</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>1551</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
         <v>1584.85</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>42</v>
       </c>
@@ -20525,42 +20627,46 @@
       <c r="G22" s="9">
         <v>-5.45E-2</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="115">
         <f t="shared" si="0"/>
-        <v>2.9864813769597074E-2</v>
-      </c>
-      <c r="I22" s="38" t="s">
+        <v>5.45E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9950153936372954E-2</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>0.92700000000000005</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>0.89300000000000002</v>
       </c>
-      <c r="L22" s="8">
+      <c r="M22" s="8">
         <v>0.96199999999999997</v>
       </c>
-      <c r="O22" s="10">
+      <c r="P22" s="10">
         <v>10</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <v>3999</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="R22" s="8">
         <v>2693</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>2708.45</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>1306</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <v>1290.55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>44</v>
       </c>
@@ -20582,24 +20688,28 @@
       <c r="G23" s="8">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="115">
         <f t="shared" si="0"/>
-        <v>-1.342546674046107E-2</v>
-      </c>
-      <c r="I23" s="38" t="s">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7959243512681421E-2</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>0.996</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>0.998</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>48</v>
       </c>
@@ -20621,24 +20731,28 @@
       <c r="G24" s="9">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="115">
         <f t="shared" si="0"/>
-        <v>1.4959805796513764E-2</v>
-      </c>
-      <c r="I24" s="38" t="s">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0011728485559297E-2</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>0.94</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>0.91700000000000004</v>
       </c>
-      <c r="L24" s="8">
+      <c r="M24" s="8">
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>49</v>
       </c>
@@ -20660,24 +20774,28 @@
       <c r="G25" s="9">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="115">
         <f t="shared" si="0"/>
-        <v>3.5070606995490139E-2</v>
-      </c>
-      <c r="I25" s="38" t="s">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6913942237208614E-2</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>1.006</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>1.0029999999999999</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M25" s="8">
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>53</v>
       </c>
@@ -20699,24 +20817,28 @@
       <c r="G26" s="9">
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="115">
         <f t="shared" si="0"/>
-        <v>7.0141213990980288E-3</v>
-      </c>
-      <c r="I26" s="38" t="s">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="1"/>
+        <v>9.3827884474417221E-3</v>
+      </c>
+      <c r="J26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>0.99199999999999999</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>0.98899999999999999</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M26" s="8">
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>55</v>
       </c>
@@ -20738,24 +20860,28 @@
       <c r="G27" s="8">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="115">
         <f t="shared" si="0"/>
-        <v>-2.717972042150486E-2</v>
-      </c>
-      <c r="I27" s="38" t="s">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="1"/>
+        <v>3.6358305233836673E-2</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>1.0880000000000001</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>1.0609999999999999</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>56</v>
       </c>
@@ -20777,24 +20903,28 @@
       <c r="G28" s="9">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="115">
         <f t="shared" si="0"/>
-        <v>2.2521905429916323E-2</v>
-      </c>
-      <c r="I28" s="38" t="s">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0127547280457401E-2</v>
+      </c>
+      <c r="J28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>1.079</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>1.0509999999999999</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>69</v>
       </c>
@@ -20816,24 +20946,28 @@
       <c r="G29" s="9">
         <v>-1.14E-2</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="115">
         <f t="shared" si="0"/>
-        <v>6.2469518710716815E-3</v>
-      </c>
-      <c r="I29" s="38" t="s">
+        <v>1.14E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3565459610027842E-3</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>1.343</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>1.3009999999999999</v>
       </c>
-      <c r="L29" s="8">
+      <c r="M29" s="8">
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>71</v>
       </c>
@@ -20855,24 +20989,28 @@
       <c r="G30" s="9">
         <v>-3.4299999999999997E-2</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="115">
         <f t="shared" si="0"/>
-        <v>1.8795653436645497E-2</v>
-      </c>
-      <c r="I30" s="38" t="s">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5142940917753986E-2</v>
+      </c>
+      <c r="J30" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>0.995</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>0.99399999999999999</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M30" s="8">
         <v>0.997</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>78</v>
       </c>
@@ -20894,24 +21032,28 @@
       <c r="G31" s="9">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="115">
         <f t="shared" si="0"/>
-        <v>9.2060343363161608E-3</v>
-      </c>
-      <c r="I31" s="38" t="s">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="1"/>
+        <v>1.231490983726726E-2</v>
+      </c>
+      <c r="J31" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>1.109</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>1.0529999999999999</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M31" s="8">
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>82</v>
       </c>
@@ -20933,24 +21075,28 @@
       <c r="G32" s="9">
         <v>-1.34E-2</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="115">
         <f t="shared" si="0"/>
-        <v>7.3429083396807484E-3</v>
-      </c>
-      <c r="I32" s="38" t="s">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="1"/>
+        <v>9.8226066559155539E-3</v>
+      </c>
+      <c r="J32" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>0.84899999999999998</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>0.79300000000000004</v>
       </c>
-      <c r="L32" s="8">
+      <c r="M32" s="8">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
         <v>84</v>
       </c>
@@ -20972,136 +21118,147 @@
       <c r="G33" s="9">
         <v>-1.84E-2</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="115">
         <f t="shared" si="0"/>
-        <v>1.0082799511203415E-2</v>
-      </c>
-      <c r="I33" s="38" t="s">
+        <v>1.84E-2</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3487758393197475E-2</v>
+      </c>
+      <c r="J33" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>0.65400000000000003</v>
       </c>
-      <c r="L33" s="8">
+      <c r="M33" s="8">
         <v>0.746</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <f>SUM(C4:C33)</f>
-        <v>-1.8248899999999999</v>
-      </c>
-      <c r="I34" s="38" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H34" s="115">
+        <f>SUM(H5:H33)</f>
+        <v>1.3642000000000003</v>
+      </c>
+      <c r="J34" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>0.91100000000000003</v>
       </c>
-      <c r="L34" s="8">
+      <c r="M34" s="8">
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I35" s="38" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H35" s="115"/>
+      <c r="J35" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>1.292</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>1.216</v>
       </c>
-      <c r="L35" s="8">
+      <c r="M35" s="8">
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I36" s="38" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H36" s="115"/>
+      <c r="J36" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>0.78400000000000003</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>0.73099999999999998</v>
       </c>
-      <c r="L36" s="8">
+      <c r="M36" s="8">
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I37" s="38" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H37" s="115"/>
+      <c r="J37" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>0.95299999999999996</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>0.90800000000000003</v>
       </c>
-      <c r="L37" s="8">
+      <c r="M37" s="8">
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I38" s="38" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H38" s="115"/>
+      <c r="J38" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="8">
+      <c r="K38" s="8">
         <v>0.879</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>0.83499999999999996</v>
       </c>
-      <c r="L38" s="8">
+      <c r="M38" s="8">
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I39" s="38" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H39" s="115"/>
+      <c r="J39" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="8">
+      <c r="K39" s="8">
         <v>0.92600000000000005</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <v>0.879</v>
       </c>
-      <c r="L39" s="8">
+      <c r="M39" s="8">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I40" s="38" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H40" s="115"/>
+      <c r="J40" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="8">
+      <c r="K40" s="8">
         <v>0.98699999999999999</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>0.97599999999999998</v>
       </c>
-      <c r="L40" s="8">
+      <c r="M40" s="8">
         <v>0.998</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I41" s="38" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H41" s="115"/>
+      <c r="J41" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="8">
+      <c r="K41" s="8">
         <v>0.84</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>0.752</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <v>0.93799999999999994</v>
       </c>
     </row>
@@ -21110,26 +21267,27 @@
     <row r="86" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21141,7 +21299,7 @@
   <dimension ref="D4:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E15"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21624,7 +21782,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:P29"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
